--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Month</t>
   </si>
@@ -55,100 +55,112 @@
     <t>Oct</t>
   </si>
   <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>1march</t>
+  </si>
+  <si>
+    <t>2march</t>
+  </si>
+  <si>
+    <t>3march</t>
+  </si>
+  <si>
+    <t>4march</t>
+  </si>
+  <si>
+    <t>5march</t>
+  </si>
+  <si>
+    <t>6march</t>
+  </si>
+  <si>
+    <t>7march</t>
+  </si>
+  <si>
+    <t>8march</t>
+  </si>
+  <si>
+    <t>9march</t>
+  </si>
+  <si>
+    <t>10march</t>
+  </si>
+  <si>
+    <t>11March</t>
+  </si>
+  <si>
+    <t>12march;20food+90food+33foodÂ +15bus</t>
+  </si>
+  <si>
+    <t>13march</t>
+  </si>
+  <si>
+    <t>14march</t>
+  </si>
+  <si>
+    <t>15march</t>
+  </si>
+  <si>
+    <t>16march</t>
+  </si>
+  <si>
+    <t>17march</t>
+  </si>
+  <si>
+    <t>18March</t>
+  </si>
+  <si>
+    <t>19march</t>
+  </si>
+  <si>
+    <t>20march;20food+10food+245food+20food+10food</t>
+  </si>
+  <si>
+    <t>21march</t>
+  </si>
+  <si>
+    <t>22march</t>
+  </si>
+  <si>
+    <t>23march</t>
+  </si>
+  <si>
+    <t>24March</t>
+  </si>
+  <si>
+    <t>4June;160food+15ex+247transport+50transport</t>
+  </si>
+  <si>
+    <t>29Aug</t>
+  </si>
+  <si>
+    <t>22Oct</t>
+  </si>
+  <si>
     <t>Nov</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>1march</t>
-  </si>
-  <si>
-    <t>2march</t>
-  </si>
-  <si>
-    <t>3march</t>
-  </si>
-  <si>
-    <t>4march</t>
-  </si>
-  <si>
-    <t>5march</t>
-  </si>
-  <si>
-    <t>6march</t>
-  </si>
-  <si>
-    <t>7march</t>
-  </si>
-  <si>
-    <t>8march</t>
-  </si>
-  <si>
-    <t>9march</t>
-  </si>
-  <si>
-    <t>10march</t>
-  </si>
-  <si>
-    <t>11March</t>
-  </si>
-  <si>
-    <t>12march</t>
-  </si>
-  <si>
-    <t>13march</t>
-  </si>
-  <si>
-    <t>14march</t>
-  </si>
-  <si>
-    <t>15march</t>
-  </si>
-  <si>
-    <t>16march</t>
-  </si>
-  <si>
-    <t>17march</t>
-  </si>
-  <si>
-    <t>18March</t>
-  </si>
-  <si>
-    <t>19march</t>
-  </si>
-  <si>
-    <t>20march</t>
-  </si>
-  <si>
-    <t>21march</t>
-  </si>
-  <si>
-    <t>22march</t>
-  </si>
-  <si>
-    <t>23march</t>
-  </si>
-  <si>
-    <t>24March</t>
-  </si>
-  <si>
-    <t>28March</t>
-  </si>
-  <si>
-    <t>31March</t>
-  </si>
-  <si>
-    <t>Imp</t>
-  </si>
-  <si>
-    <t>10,728</t>
+    <t>10Nov</t>
+  </si>
+  <si>
+    <t>30Nov</t>
+  </si>
+  <si>
+    <t>10Dec</t>
+  </si>
+  <si>
+    <t>1Jan2021;5ex</t>
+  </si>
+  <si>
+    <t>17Feb</t>
+  </si>
+  <si>
+    <t>Â 10,728</t>
   </si>
   <si>
     <t>10,112.99</t>
@@ -163,34 +175,19 @@
     <t>10991</t>
   </si>
   <si>
-    <t>8086</t>
-  </si>
-  <si>
-    <t>9280</t>
-  </si>
-  <si>
-    <t>8730</t>
-  </si>
-  <si>
-    <t>8652</t>
-  </si>
-  <si>
-    <t>9573</t>
-  </si>
-  <si>
-    <t>7146</t>
-  </si>
-  <si>
-    <t>9558</t>
-  </si>
-  <si>
-    <t>Bal</t>
+    <t>Â Â 8086food</t>
+  </si>
+  <si>
+    <t>3033food+1160transport+5087ex=9280</t>
+  </si>
+  <si>
+    <t>2917food+833transport+4980ex=8730</t>
   </si>
   <si>
     <t>accountbalance</t>
   </si>
   <si>
-    <t>106transport+90food+20food+15transport+40food</t>
+    <t>106transport+90foodÂ +20food+15transport+40food</t>
   </si>
   <si>
     <t>90food+28food+40food</t>
@@ -199,7 +196,7 @@
     <t>158food+15transport</t>
   </si>
   <si>
-    <t>100food+27transport+28food</t>
+    <t>100food+27transportÂ +28food</t>
   </si>
   <si>
     <t>80food+4500ex+68food+15bus</t>
@@ -217,13 +214,10 @@
     <t>92food+</t>
   </si>
   <si>
-    <t>158food</t>
-  </si>
-  <si>
-    <t>20food+90food+33food+15bus</t>
-  </si>
-  <si>
-    <t>70food+23bus+22food+40food</t>
+    <t>158food.</t>
+  </si>
+  <si>
+    <t>70food+23bus+22foodÂ +40food</t>
   </si>
   <si>
     <t>70food+30bus+40food+</t>
@@ -241,9 +235,6 @@
     <t>70food+20food</t>
   </si>
   <si>
-    <t>20food+10food+245food+20food+10food</t>
-  </si>
-  <si>
     <t>65food</t>
   </si>
   <si>
@@ -256,97 +247,43 @@
     <t>30food+34food+600transport</t>
   </si>
   <si>
-    <t>329ex</t>
-  </si>
-  <si>
-    <t>598ex</t>
-  </si>
-  <si>
-    <t>122043.37balance</t>
-  </si>
-  <si>
-    <t>11000madhavPGhastaken</t>
-  </si>
-  <si>
-    <t>1544822.37withsalarybalance</t>
-  </si>
-  <si>
-    <t>3947</t>
-  </si>
-  <si>
-    <t>2663</t>
-  </si>
-  <si>
-    <t>3033</t>
-  </si>
-  <si>
-    <t>2917</t>
-  </si>
-  <si>
-    <t>3020</t>
-  </si>
-  <si>
-    <t>3341</t>
-  </si>
-  <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>3712</t>
-  </si>
-  <si>
-    <t>114459</t>
+    <t>2999ex</t>
+  </si>
+  <si>
+    <t>49ex</t>
+  </si>
+  <si>
+    <t>6nov</t>
+  </si>
+  <si>
+    <t>1000ex</t>
+  </si>
+  <si>
+    <t>328ex</t>
+  </si>
+  <si>
+    <t>149ex</t>
+  </si>
+  <si>
+    <t>50ex</t>
+  </si>
+  <si>
+    <t>food=3947,transport=405,ex=6639</t>
+  </si>
+  <si>
+    <t>2663transport</t>
   </si>
   <si>
     <t>144740.37</t>
   </si>
   <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>6639</t>
+    <t>699ex</t>
+  </si>
+  <si>
+    <t>Â 914,ex</t>
   </si>
   <si>
     <t>4509</t>
-  </si>
-  <si>
-    <t>5087</t>
-  </si>
-  <si>
-    <t>4980</t>
-  </si>
-  <si>
-    <t>4899</t>
-  </si>
-  <si>
-    <t>5664</t>
-  </si>
-  <si>
-    <t>4512</t>
-  </si>
-  <si>
-    <t>4990</t>
   </si>
 </sst>
 </file>
@@ -704,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -746,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -757,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -768,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -779,16 +716,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -799,16 +730,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -819,16 +750,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -839,16 +761,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -858,18 +771,6 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -878,37 +779,13 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -916,19 +793,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,13 +807,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,10 +821,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -967,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -978,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -989,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1000,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1011,7 +876,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1022,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1033,7 +898,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1044,7 +909,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1054,9 +919,6 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
@@ -1077,7 +939,7 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1088,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1099,7 +961,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1142,11 +1004,8 @@
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1154,10 +1013,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1165,10 +1024,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1176,10 +1035,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1187,84 +1046,119 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
